--- a/Defect_Log.xlsx
+++ b/Defect_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{4A3C1B3D-DB77-4359-A5AA-0CFD9C16B28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFD80343-7DF4-445D-A245-026DAC77A6A4}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="8_{4A3C1B3D-DB77-4359-A5AA-0CFD9C16B28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74C1C80F-0AD1-4F4C-B860-516AC3D9C8D1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CE93CBE6-1505-4CAB-A450-EA4C7AE242C3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>Defect ID</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Open</t>
-  </si>
-  <si>
-    <t>Web-chrome</t>
   </si>
   <si>
     <t>1. Open Login page
@@ -182,9 +179,6 @@
     <t>User still logged in</t>
   </si>
   <si>
-    <t xml:space="preserve">TS_PDP_02 </t>
-  </si>
-  <si>
     <t>Product Details Page</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>DEF_PDP_01</t>
   </si>
   <si>
-    <t>User should be logged in</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. View product images 
 Product </t>
   </si>
@@ -223,10 +214,6 @@
 auto-suggest dropdown </t>
   </si>
   <si>
-    <t xml:space="preserve">Selected product is highlighted
-</t>
-  </si>
-  <si>
     <t>Not able 
 select product from dropdown</t>
   </si>
@@ -236,6 +223,16 @@
   <si>
     <t>1. Click on a product 
 from dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_PDP_02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is redirected to the selected product’s Product Details Page
+</t>
+  </si>
+  <si>
+    <t>Web – Chrome (Windows 10)</t>
   </si>
 </sst>
 </file>
@@ -319,6 +316,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC63321-4B0D-434E-8792-87F69903336F}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -719,37 +720,37 @@
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
@@ -757,104 +758,110 @@
       <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
+      <c r="H3" t="s">
+        <v>60</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
       <c r="I4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
       <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>18</v>
@@ -862,34 +869,34 @@
       <c r="G6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="M6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>18</v>
@@ -900,25 +907,25 @@
       <c r="G7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>50</v>
+      <c r="H7" t="s">
+        <v>60</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
